--- a/Probability Table.xlsx
+++ b/Probability Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caseygoldberg/Computational Creativity/Markov-Chain-Dance-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bowdoin-my.sharepoint.com/personal/cgoldber_bowdoin_edu/Documents/Desktop/Computational Creativity/Markov Chain Dancer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9056D5-C918-CE48-8E26-EE2E3FECE268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{DD9056D5-C918-CE48-8E26-EE2E3FECE268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50923A4-FB92-C543-96C1-F39C87916647}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Matrix" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -994,7 +994,7 @@
         <v>0.05</v>
       </c>
       <c r="N14" s="2">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B14">
         <f>'Raw Matrix'!B14/SUM('Raw Matrix'!$B14:$N14)</f>
-        <v>3.0674846625766871E-2</v>
+        <v>4.4247787610619468E-2</v>
       </c>
       <c r="C14">
         <f>'Raw Matrix'!C14/SUM('Raw Matrix'!$B14:$N14)</f>
@@ -1957,11 +1957,11 @@
       </c>
       <c r="D14">
         <f>'Raw Matrix'!D14/SUM('Raw Matrix'!$B14:$N14)</f>
-        <v>6.1349693251533742E-2</v>
+        <v>8.8495575221238937E-2</v>
       </c>
       <c r="E14">
         <f>'Raw Matrix'!E14/SUM('Raw Matrix'!$B14:$N14)</f>
-        <v>0.12269938650306748</v>
+        <v>0.17699115044247787</v>
       </c>
       <c r="F14">
         <f>'Raw Matrix'!F14/SUM('Raw Matrix'!$B14:$N14)</f>
@@ -1973,31 +1973,31 @@
       </c>
       <c r="H14">
         <f>'Raw Matrix'!H14/SUM('Raw Matrix'!$B14:$N14)</f>
-        <v>6.1349693251533742E-2</v>
+        <v>8.8495575221238937E-2</v>
       </c>
       <c r="I14">
         <f>'Raw Matrix'!I14/SUM('Raw Matrix'!$B14:$N14)</f>
-        <v>3.0674846625766871E-2</v>
+        <v>4.4247787610619468E-2</v>
       </c>
       <c r="J14">
         <f>'Raw Matrix'!J14/SUM('Raw Matrix'!$B14:$N14)</f>
-        <v>6.1349693251533742E-2</v>
+        <v>8.8495575221238937E-2</v>
       </c>
       <c r="K14">
         <f>'Raw Matrix'!K14/SUM('Raw Matrix'!$B14:$N14)</f>
-        <v>6.1349693251533742E-2</v>
+        <v>8.8495575221238937E-2</v>
       </c>
       <c r="L14">
         <f>'Raw Matrix'!L14/SUM('Raw Matrix'!$B14:$N14)</f>
-        <v>4.9079754601226988E-2</v>
+        <v>7.0796460176991149E-2</v>
       </c>
       <c r="M14">
         <f>'Raw Matrix'!M14/SUM('Raw Matrix'!$B14:$N14)</f>
-        <v>3.0674846625766871E-2</v>
+        <v>4.4247787610619468E-2</v>
       </c>
       <c r="N14">
         <f>'Raw Matrix'!N14/SUM('Raw Matrix'!$B14:$N14)</f>
-        <v>0.49079754601226994</v>
+        <v>0.26548672566371678</v>
       </c>
     </row>
   </sheetData>
